--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value884.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value884.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.307363887928135</v>
+        <v>3.05870532989502</v>
       </c>
       <c r="B1">
-        <v>2.490945315197993</v>
+        <v>2.271656036376953</v>
       </c>
       <c r="C1">
-        <v>3.170730923883796</v>
+        <v>1.887726068496704</v>
       </c>
       <c r="D1">
-        <v>3.456264692328761</v>
+        <v>1.804315686225891</v>
       </c>
       <c r="E1">
-        <v>1.066783430388447</v>
+        <v>1.630901336669922</v>
       </c>
     </row>
   </sheetData>
